--- a/ValueSet-molicavc-cvdcomorbidities-valueset.xlsx
+++ b/ValueSet-molicavc-cvdcomorbidities-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T16:55:27-03:00</t>
+    <t>2023-10-25T16:05:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-cvdcomorbidities-valueset.xlsx
+++ b/ValueSet-molicavc-cvdcomorbidities-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T16:05:12-03:00</t>
+    <t>2023-11-21T18:47:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-cvdcomorbidities-valueset.xlsx
+++ b/ValueSet-molicavc-cvdcomorbidities-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T18:47:54-03:00</t>
+    <t>2023-11-21T19:08:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
